--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -909,10 +921,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -956,28 +968,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1002,28 +1014,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1082,10 +1094,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1129,28 +1141,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1175,28 +1187,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1255,10 +1267,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1302,28 +1314,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1348,28 +1360,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1428,10 +1440,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1475,28 +1487,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1521,28 +1533,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1630,10 +1642,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1677,28 +1689,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1723,28 +1735,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1803,10 +1815,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1850,28 +1862,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1896,28 +1908,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1976,10 +1988,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2023,28 +2035,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2069,28 +2081,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2149,10 +2161,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2196,28 +2208,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2242,28 +2254,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2322,10 +2334,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2369,28 +2381,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2415,28 +2427,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2495,10 +2507,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2542,28 +2554,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2588,28 +2600,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2668,10 +2680,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2715,28 +2727,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2761,28 +2773,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2841,10 +2853,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2888,28 +2900,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2934,28 +2946,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3014,10 +3026,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3061,28 +3073,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3107,28 +3119,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3187,10 +3199,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3234,28 +3246,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3280,28 +3292,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3360,10 +3372,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3407,28 +3419,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3453,28 +3465,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3533,10 +3545,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3580,28 +3592,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3626,28 +3638,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3764,10 +3776,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3811,28 +3823,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3857,28 +3869,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3937,10 +3949,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3984,28 +3996,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4030,28 +4042,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4110,10 +4122,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4157,28 +4169,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4203,28 +4215,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4283,10 +4295,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4330,28 +4342,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4376,28 +4388,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4456,10 +4468,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4549,28 +4561,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4629,10 +4641,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4676,28 +4688,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4722,28 +4734,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4802,10 +4814,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4849,28 +4861,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4895,28 +4907,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5033,10 +5045,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5080,28 +5092,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5126,28 +5138,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5206,10 +5218,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5253,28 +5265,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5299,28 +5311,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5437,10 +5449,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5484,28 +5496,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5530,28 +5542,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5610,10 +5622,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5657,28 +5669,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5703,28 +5715,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5783,10 +5795,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5876,28 +5888,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5956,10 +5968,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6049,28 +6061,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6129,10 +6141,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6176,28 +6188,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6222,28 +6234,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6331,10 +6343,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6378,28 +6390,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6424,28 +6436,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6504,10 +6516,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6551,28 +6563,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6597,28 +6609,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6677,10 +6689,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6724,28 +6736,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6770,28 +6782,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6850,10 +6862,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6897,28 +6909,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6943,28 +6955,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7052,10 +7064,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7099,28 +7111,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7145,28 +7157,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7225,10 +7237,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7272,28 +7284,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7318,28 +7330,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7398,10 +7410,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7445,28 +7457,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7491,28 +7503,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7600,10 +7612,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7647,28 +7659,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7693,28 +7705,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7773,10 +7785,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7820,28 +7832,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7866,28 +7878,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7946,10 +7958,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7993,28 +8005,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8039,28 +8051,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8119,10 +8131,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8166,28 +8178,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8212,28 +8224,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8292,10 +8304,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8339,28 +8351,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8385,28 +8397,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8465,10 +8477,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8512,28 +8524,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8558,28 +8570,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8638,10 +8650,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8685,28 +8697,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8731,28 +8743,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8811,10 +8823,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8858,28 +8870,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8904,28 +8916,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8984,10 +8996,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9031,28 +9043,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9077,28 +9089,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9157,10 +9169,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9204,28 +9216,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9250,28 +9262,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9330,10 +9342,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9377,28 +9389,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9423,28 +9435,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9503,10 +9515,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9550,28 +9562,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9596,28 +9608,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9676,10 +9688,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9723,28 +9735,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9769,28 +9781,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9849,10 +9861,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9896,28 +9908,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9942,28 +9954,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10022,10 +10034,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10069,28 +10081,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10115,28 +10127,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10195,10 +10207,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10242,28 +10254,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10288,28 +10300,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10368,10 +10380,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10415,28 +10427,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10461,28 +10473,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10541,10 +10553,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10588,28 +10600,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10634,28 +10646,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10714,10 +10726,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10761,28 +10773,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10807,28 +10819,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10887,10 +10899,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10934,28 +10946,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10980,28 +10992,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11060,10 +11072,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11107,28 +11119,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11153,28 +11165,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11262,10 +11274,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11309,28 +11321,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11355,28 +11367,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11435,10 +11447,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11482,28 +11494,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11528,28 +11540,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11608,10 +11620,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11655,28 +11667,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11701,28 +11713,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11781,10 +11793,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="2" t="s">
+      <c r="J404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11828,28 +11840,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="2">
+      <c r="A406" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="2">
+      <c r="C406" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11874,28 +11886,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="2">
+      <c r="C408" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="2">
+      <c r="D408" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="2">
+      <c r="I408" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11954,10 +11966,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12001,28 +12013,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12047,28 +12059,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12127,10 +12139,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12174,28 +12186,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12220,28 +12232,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12300,10 +12312,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12347,28 +12359,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12393,28 +12405,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12473,10 +12485,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12520,28 +12532,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12566,28 +12578,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12646,10 +12658,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="2" t="s">
+      <c r="J434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12693,28 +12705,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="2">
+      <c r="A436" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="2">
+      <c r="C436" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12739,28 +12751,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="2">
+      <c r="C438" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="2">
+      <c r="D438" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="2">
+      <c r="I438" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12819,10 +12831,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="2" t="s">
+      <c r="J440" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12866,28 +12878,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="2">
+      <c r="A442" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="2">
+      <c r="C442" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12912,28 +12924,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="2">
+      <c r="C444" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="2">
+      <c r="D444" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="2">
+      <c r="I444" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12992,10 +13004,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="2" t="s">
+      <c r="J446" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
@@ -13039,28 +13051,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="s" s="2">
+      <c r="A448" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C448" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D448" t="s" s="2">
+      <c r="C448" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13085,28 +13097,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="B450" t="s" s="2">
+      <c r="B450" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C450" t="s" s="2">
+      <c r="C450" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D450" t="s" s="2">
+      <c r="D450" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E450" t="s" s="2">
+      <c r="E450" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F450" t="s" s="2">
+      <c r="F450" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G450" t="s" s="2">
+      <c r="G450" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H450" t="s" s="2">
+      <c r="H450" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I450" t="s" s="2">
+      <c r="I450" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13165,10 +13177,10 @@
       <c r="I452">
         <f>((C452-C451)^2+(D452- D451)^2)^.5</f>
       </c>
-      <c r="J452" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K452" s="2" t="s">
+      <c r="J452" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K452" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L452" t="n">
@@ -13212,28 +13224,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="s" s="2">
+      <c r="A454" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C454" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D454" t="s" s="2">
+      <c r="C454" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D454" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13258,28 +13270,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="B456" t="s" s="2">
+      <c r="B456" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C456" t="s" s="2">
+      <c r="C456" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D456" t="s" s="2">
+      <c r="D456" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E456" t="s" s="2">
+      <c r="E456" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F456" t="s" s="2">
+      <c r="F456" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G456" t="s" s="2">
+      <c r="G456" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H456" t="s" s="2">
+      <c r="H456" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I456" t="s" s="2">
+      <c r="I456" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13367,10 +13379,10 @@
       <c r="I459">
         <f>((C459-C458)^2+(D459- D458)^2)^.5</f>
       </c>
-      <c r="J459" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K459" s="2" t="s">
+      <c r="J459" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K459" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L459" t="n">
@@ -13414,28 +13426,28 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="s" s="2">
+      <c r="A461" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B461" t="s" s="2">
+      <c r="B461" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C461" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D461" t="s" s="2">
+      <c r="C461" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D461" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E461" t="s" s="2">
+      <c r="E461" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F461" t="s" s="2">
+      <c r="F461" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G461" t="s" s="2">
+      <c r="G461" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H461" t="s" s="2">
+      <c r="H461" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13460,28 +13472,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="B463" t="s" s="2">
+      <c r="B463" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C463" t="s" s="2">
+      <c r="C463" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D463" t="s" s="2">
+      <c r="D463" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E463" t="s" s="2">
+      <c r="E463" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F463" t="s" s="2">
+      <c r="F463" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G463" t="s" s="2">
+      <c r="G463" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H463" t="s" s="2">
+      <c r="H463" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I463" t="s" s="2">
+      <c r="I463" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13540,10 +13552,10 @@
       <c r="I465">
         <f>((C465-C464)^2+(D465- D464)^2)^.5</f>
       </c>
-      <c r="J465" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K465" s="2" t="s">
+      <c r="J465" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K465" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L465" t="n">
@@ -13587,28 +13599,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="s" s="2">
+      <c r="A467" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B467" t="s" s="2">
+      <c r="B467" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C467" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D467" t="s" s="2">
+      <c r="C467" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D467" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E467" t="s" s="2">
+      <c r="E467" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F467" t="s" s="2">
+      <c r="F467" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G467" t="s" s="2">
+      <c r="G467" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H467" t="s" s="2">
+      <c r="H467" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13633,28 +13645,28 @@
       </c>
     </row>
     <row r="469">
-      <c r="B469" t="s" s="2">
+      <c r="B469" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C469" t="s" s="2">
+      <c r="C469" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D469" t="s" s="2">
+      <c r="D469" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E469" t="s" s="2">
+      <c r="E469" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F469" t="s" s="2">
+      <c r="F469" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G469" t="s" s="2">
+      <c r="G469" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H469" t="s" s="2">
+      <c r="H469" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I469" t="s" s="2">
+      <c r="I469" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13713,10 +13725,10 @@
       <c r="I471">
         <f>((C471-C470)^2+(D471- D470)^2)^.5</f>
       </c>
-      <c r="J471" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K471" s="2" t="s">
+      <c r="J471" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K471" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L471" t="n">
@@ -13760,28 +13772,28 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="s" s="2">
+      <c r="A473" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B473" t="s" s="2">
+      <c r="B473" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C473" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D473" t="s" s="2">
+      <c r="C473" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D473" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E473" t="s" s="2">
+      <c r="E473" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F473" t="s" s="2">
+      <c r="F473" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G473" t="s" s="2">
+      <c r="G473" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H473" t="s" s="2">
+      <c r="H473" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13806,28 +13818,28 @@
       </c>
     </row>
     <row r="475">
-      <c r="B475" t="s" s="2">
+      <c r="B475" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C475" t="s" s="2">
+      <c r="C475" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D475" t="s" s="2">
+      <c r="D475" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E475" t="s" s="2">
+      <c r="E475" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F475" t="s" s="2">
+      <c r="F475" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G475" t="s" s="2">
+      <c r="G475" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H475" t="s" s="2">
+      <c r="H475" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I475" t="s" s="2">
+      <c r="I475" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13886,10 +13898,10 @@
       <c r="I477">
         <f>((C477-C476)^2+(D477- D476)^2)^.5</f>
       </c>
-      <c r="J477" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K477" s="2" t="s">
+      <c r="J477" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K477" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L477" t="n">
@@ -13933,28 +13945,28 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="s" s="2">
+      <c r="A479" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B479" t="s" s="2">
+      <c r="B479" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C479" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D479" t="s" s="2">
+      <c r="C479" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D479" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E479" t="s" s="2">
+      <c r="E479" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F479" t="s" s="2">
+      <c r="F479" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G479" t="s" s="2">
+      <c r="G479" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H479" t="s" s="2">
+      <c r="H479" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13979,28 +13991,28 @@
       </c>
     </row>
     <row r="481">
-      <c r="B481" t="s" s="2">
+      <c r="B481" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C481" t="s" s="2">
+      <c r="C481" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D481" t="s" s="2">
+      <c r="D481" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E481" t="s" s="2">
+      <c r="E481" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F481" t="s" s="2">
+      <c r="F481" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G481" t="s" s="2">
+      <c r="G481" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H481" t="s" s="2">
+      <c r="H481" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I481" t="s" s="2">
+      <c r="I481" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14117,10 +14129,10 @@
       <c r="I485">
         <f>((C485-C484)^2+(D485- D484)^2)^.5</f>
       </c>
-      <c r="J485" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K485" s="2" t="s">
+      <c r="J485" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K485" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L485" t="n">
@@ -14164,28 +14176,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="s" s="2">
+      <c r="A487" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B487" t="s" s="2">
+      <c r="B487" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C487" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D487" t="s" s="2">
+      <c r="C487" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D487" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E487" t="s" s="2">
+      <c r="E487" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F487" t="s" s="2">
+      <c r="F487" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G487" t="s" s="2">
+      <c r="G487" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H487" t="s" s="2">
+      <c r="H487" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14210,28 +14222,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="B489" t="s" s="2">
+      <c r="B489" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C489" t="s" s="2">
+      <c r="C489" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D489" t="s" s="2">
+      <c r="D489" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E489" t="s" s="2">
+      <c r="E489" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F489" t="s" s="2">
+      <c r="F489" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G489" t="s" s="2">
+      <c r="G489" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H489" t="s" s="2">
+      <c r="H489" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I489" t="s" s="2">
+      <c r="I489" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14290,10 +14302,10 @@
       <c r="I491">
         <f>((C491-C490)^2+(D491- D490)^2)^.5</f>
       </c>
-      <c r="J491" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K491" s="2" t="s">
+      <c r="J491" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K491" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L491" t="n">
@@ -14337,28 +14349,28 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="s" s="2">
+      <c r="A493" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B493" t="s" s="2">
+      <c r="B493" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C493" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D493" t="s" s="2">
+      <c r="C493" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D493" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E493" t="s" s="2">
+      <c r="E493" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F493" t="s" s="2">
+      <c r="F493" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G493" t="s" s="2">
+      <c r="G493" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H493" t="s" s="2">
+      <c r="H493" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14383,28 +14395,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="B495" t="s" s="2">
+      <c r="B495" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C495" t="s" s="2">
+      <c r="C495" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D495" t="s" s="2">
+      <c r="D495" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E495" t="s" s="2">
+      <c r="E495" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F495" t="s" s="2">
+      <c r="F495" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G495" t="s" s="2">
+      <c r="G495" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H495" t="s" s="2">
+      <c r="H495" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I495" t="s" s="2">
+      <c r="I495" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14492,10 +14504,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="2" t="s">
+      <c r="J498" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14539,28 +14551,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="2">
+      <c r="A500" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="2">
+      <c r="B500" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="2">
+      <c r="C500" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="2">
+      <c r="E500" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="2">
+      <c r="F500" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="2">
+      <c r="G500" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="2">
+      <c r="H500" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14585,28 +14597,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="2">
+      <c r="B502" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="2">
+      <c r="C502" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="2">
+      <c r="D502" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="2">
+      <c r="E502" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="2">
+      <c r="F502" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="2">
+      <c r="G502" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="2">
+      <c r="H502" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="2">
+      <c r="I502" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14665,10 +14677,10 @@
       <c r="I504">
         <f>((C504-C503)^2+(D504- D503)^2)^.5</f>
       </c>
-      <c r="J504" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K504" s="2" t="s">
+      <c r="J504" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K504" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L504" t="n">
@@ -14712,28 +14724,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="s" s="2">
+      <c r="A506" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B506" t="s" s="2">
+      <c r="B506" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C506" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D506" t="s" s="2">
+      <c r="C506" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D506" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E506" t="s" s="2">
+      <c r="E506" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F506" t="s" s="2">
+      <c r="F506" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G506" t="s" s="2">
+      <c r="G506" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H506" t="s" s="2">
+      <c r="H506" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14758,28 +14770,28 @@
       </c>
     </row>
     <row r="508">
-      <c r="B508" t="s" s="2">
+      <c r="B508" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C508" t="s" s="2">
+      <c r="C508" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D508" t="s" s="2">
+      <c r="D508" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E508" t="s" s="2">
+      <c r="E508" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F508" t="s" s="2">
+      <c r="F508" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G508" t="s" s="2">
+      <c r="G508" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H508" t="s" s="2">
+      <c r="H508" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I508" t="s" s="2">
+      <c r="I508" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14838,10 +14850,10 @@
       <c r="I510">
         <f>((C510-C509)^2+(D510- D509)^2)^.5</f>
       </c>
-      <c r="J510" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K510" s="2" t="s">
+      <c r="J510" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K510" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L510" t="n">
@@ -14885,28 +14897,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="s" s="2">
+      <c r="A512" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B512" t="s" s="2">
+      <c r="B512" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C512" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D512" t="s" s="2">
+      <c r="C512" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D512" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E512" t="s" s="2">
+      <c r="E512" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F512" t="s" s="2">
+      <c r="F512" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G512" t="s" s="2">
+      <c r="G512" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H512" t="s" s="2">
+      <c r="H512" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14931,28 +14943,28 @@
       </c>
     </row>
     <row r="514">
-      <c r="B514" t="s" s="2">
+      <c r="B514" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C514" t="s" s="2">
+      <c r="C514" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D514" t="s" s="2">
+      <c r="D514" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E514" t="s" s="2">
+      <c r="E514" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F514" t="s" s="2">
+      <c r="F514" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G514" t="s" s="2">
+      <c r="G514" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H514" t="s" s="2">
+      <c r="H514" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I514" t="s" s="2">
+      <c r="I514" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15011,10 +15023,10 @@
       <c r="I516">
         <f>((C516-C515)^2+(D516- D515)^2)^.5</f>
       </c>
-      <c r="J516" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K516" s="2" t="s">
+      <c r="J516" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K516" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L516" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18120" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -517,10 +565,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -564,28 +612,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="4">
+      <c r="A15" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="4">
+      <c r="C15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -610,28 +658,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="4">
+      <c r="I17" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -690,10 +738,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -737,28 +785,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -783,28 +831,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -921,10 +969,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -968,28 +1016,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1014,28 +1062,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1094,10 +1142,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1141,28 +1189,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1187,28 +1235,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1267,10 +1315,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1314,28 +1362,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="C41" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1360,28 +1408,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="4">
+      <c r="I43" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1440,10 +1488,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1487,28 +1535,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1533,28 +1581,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1642,10 +1690,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1689,28 +1737,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1735,28 +1783,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1815,10 +1863,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1862,28 +1910,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="4">
+      <c r="C60" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1908,28 +1956,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1988,10 +2036,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2035,28 +2083,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2081,28 +2129,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2161,10 +2209,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="J70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2208,28 +2256,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="4">
+      <c r="C72" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2254,28 +2302,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2334,10 +2382,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="4" t="s">
+      <c r="J76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2381,28 +2429,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="4">
+      <c r="C78" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2427,28 +2475,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="4">
+      <c r="I80" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2507,10 +2555,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="J82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2554,28 +2602,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="C84" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2600,28 +2648,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2680,10 +2728,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2727,28 +2775,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2773,28 +2821,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2853,10 +2901,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2900,28 +2948,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2946,28 +2994,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3026,10 +3074,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="J100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3073,28 +3121,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="4">
+      <c r="C102" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3119,28 +3167,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3199,10 +3247,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3246,28 +3294,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3292,28 +3340,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3420,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3467,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3513,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3545,10 +3593,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="4" t="s">
+      <c r="J118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3592,28 +3640,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="4">
+      <c r="C120" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3638,28 +3686,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="4">
+      <c r="I122" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3776,10 +3824,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="4" t="s">
+      <c r="J126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3823,28 +3871,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="4">
+      <c r="C128" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3869,28 +3917,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="4">
+      <c r="I130" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3949,10 +3997,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3996,28 +4044,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4042,28 +4090,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4122,10 +4170,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4169,28 +4217,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4215,28 +4263,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4343,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4390,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4436,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4468,10 +4516,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4515,28 +4563,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4561,28 +4609,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4641,10 +4689,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4688,28 +4736,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4734,28 +4782,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4814,10 +4862,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4861,28 +4909,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4907,28 +4955,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5045,10 +5093,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5092,28 +5140,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5138,28 +5186,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5218,10 +5266,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5265,28 +5313,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5311,28 +5359,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5449,10 +5497,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="4" t="s">
+      <c r="J184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5496,28 +5544,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="4">
+      <c r="C186" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5542,28 +5590,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="4">
+      <c r="I188" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5622,10 +5670,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="4" t="s">
+      <c r="J190" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5669,28 +5717,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="4">
+      <c r="C192" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5715,28 +5763,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5843,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="4" t="s">
+      <c r="J196" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5842,28 +5890,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="4">
+      <c r="C198" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5888,28 +5936,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C200" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="4">
+      <c r="D200" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="4">
+      <c r="I200" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5968,10 +6016,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6015,28 +6063,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6061,28 +6109,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6141,10 +6189,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6188,28 +6236,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6234,28 +6282,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6343,10 +6391,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="4" t="s">
+      <c r="J215" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6390,28 +6438,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="4">
+      <c r="A217" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="4">
+      <c r="C217" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6436,28 +6484,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="4">
+      <c r="C219" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="4">
+      <c r="D219" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="4">
+      <c r="I219" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6516,10 +6564,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="4" t="s">
+      <c r="J221" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6563,28 +6611,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="4">
+      <c r="A223" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="4">
+      <c r="C223" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6609,28 +6657,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="4">
+      <c r="C225" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="4">
+      <c r="D225" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="4">
+      <c r="I225" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6689,10 +6737,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="4" t="s">
+      <c r="J227" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6736,28 +6784,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="4">
+      <c r="A229" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="4">
+      <c r="C229" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6782,28 +6830,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="4">
+      <c r="C231" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="4">
+      <c r="D231" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="4">
+      <c r="I231" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6862,10 +6910,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6909,28 +6957,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6955,28 +7003,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7064,10 +7112,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7111,28 +7159,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7157,28 +7205,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7237,10 +7285,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="4" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7284,28 +7332,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="4">
+      <c r="A248" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="4">
+      <c r="C248" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7330,28 +7378,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="4">
+      <c r="I250" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7410,10 +7458,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="4" t="s">
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7457,28 +7505,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="4">
+      <c r="A254" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="4">
+      <c r="C254" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7503,28 +7551,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="4">
+      <c r="I256" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7612,10 +7660,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="4" t="s">
+      <c r="J259" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7659,28 +7707,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="4">
+      <c r="A261" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="4">
+      <c r="B261" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="4">
+      <c r="C261" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="4">
+      <c r="G261" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="4">
+      <c r="H261" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7705,28 +7753,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="4">
+      <c r="C263" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="4">
+      <c r="D263" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="4">
+      <c r="I263" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7785,10 +7833,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="4" t="s">
+      <c r="J265" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7832,28 +7880,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="4">
+      <c r="A267" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="4">
+      <c r="C267" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7878,28 +7926,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="4">
+      <c r="C269" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="4">
+      <c r="D269" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="4">
+      <c r="I269" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7958,10 +8006,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="4" t="s">
+      <c r="J271" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8005,28 +8053,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="4">
+      <c r="A273" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="4">
+      <c r="C273" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8051,28 +8099,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="4">
+      <c r="C275" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="4">
+      <c r="D275" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="4">
+      <c r="I275" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8131,10 +8179,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="4" t="s">
+      <c r="J277" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8178,28 +8226,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="4">
+      <c r="A279" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="4">
+      <c r="C279" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8224,28 +8272,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="4">
+      <c r="C281" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="4">
+      <c r="D281" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="4">
+      <c r="I281" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8304,10 +8352,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="4" t="s">
+      <c r="J283" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8351,28 +8399,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="4">
+      <c r="A285" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="4">
+      <c r="C285" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8397,28 +8445,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="4">
+      <c r="C287" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="4">
+      <c r="D287" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="4">
+      <c r="I287" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8477,10 +8525,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="4" t="s">
+      <c r="J289" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8524,28 +8572,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="4">
+      <c r="A291" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="4">
+      <c r="C291" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8570,28 +8618,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="4">
+      <c r="C293" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="4">
+      <c r="D293" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="4">
+      <c r="I293" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8650,10 +8698,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="4" t="s">
+      <c r="J295" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8697,28 +8745,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="4">
+      <c r="A297" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="4">
+      <c r="C297" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8743,28 +8791,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="4">
+      <c r="C299" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="4">
+      <c r="D299" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="4">
+      <c r="I299" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8823,10 +8871,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="4" t="s">
+      <c r="J301" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8870,28 +8918,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="4">
+      <c r="A303" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="4">
+      <c r="C303" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="4">
+      <c r="E303" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="4">
+      <c r="F303" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="4">
+      <c r="G303" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="4">
+      <c r="H303" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8916,28 +8964,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="4">
+      <c r="C305" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="4">
+      <c r="D305" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="4">
+      <c r="I305" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8996,10 +9044,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="4" t="s">
+      <c r="J307" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9043,28 +9091,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="4">
+      <c r="A309" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="4">
+      <c r="C309" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9089,28 +9137,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="4">
+      <c r="C311" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="4">
+      <c r="D311" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="4">
+      <c r="I311" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9169,10 +9217,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="4" t="s">
+      <c r="J313" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9216,28 +9264,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="4">
+      <c r="A315" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="4">
+      <c r="C315" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9262,28 +9310,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="4">
+      <c r="C317" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="4">
+      <c r="D317" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="4">
+      <c r="I317" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9342,10 +9390,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="4" t="s">
+      <c r="J319" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9389,28 +9437,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="4">
+      <c r="A321" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="4">
+      <c r="C321" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9435,28 +9483,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="4">
+      <c r="C323" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="4">
+      <c r="D323" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="4">
+      <c r="I323" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9515,10 +9563,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9562,28 +9610,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="4">
+      <c r="A327" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="4">
+      <c r="C327" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9608,28 +9656,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="4">
+      <c r="C329" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="4">
+      <c r="D329" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="4">
+      <c r="I329" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9688,10 +9736,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="4" t="s">
+      <c r="J331" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9735,28 +9783,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="4">
+      <c r="A333" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="4">
+      <c r="C333" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9781,28 +9829,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="4">
+      <c r="C335" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="4">
+      <c r="D335" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="4">
+      <c r="I335" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9861,10 +9909,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="4" t="s">
+      <c r="J337" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9908,28 +9956,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="4">
+      <c r="A339" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="4">
+      <c r="C339" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9954,28 +10002,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="4">
+      <c r="C341" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="4">
+      <c r="D341" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="4">
+      <c r="I341" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10034,10 +10082,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="4" t="s">
+      <c r="J343" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10081,28 +10129,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="4">
+      <c r="A345" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="4">
+      <c r="C345" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10127,28 +10175,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="4">
+      <c r="C347" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="4">
+      <c r="D347" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="4">
+      <c r="I347" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10207,10 +10255,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="4" t="s">
+      <c r="J349" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10254,28 +10302,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="4">
+      <c r="A351" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="4">
+      <c r="C351" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10300,28 +10348,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="4">
+      <c r="C353" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="4">
+      <c r="D353" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="4">
+      <c r="I353" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10380,10 +10428,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="4" t="s">
+      <c r="J355" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10427,28 +10475,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="4">
+      <c r="A357" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="4">
+      <c r="B357" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="4">
+      <c r="C357" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="4">
+      <c r="E357" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="4">
+      <c r="F357" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="4">
+      <c r="G357" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="4">
+      <c r="H357" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10473,28 +10521,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="4">
+      <c r="C359" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="4">
+      <c r="D359" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="4">
+      <c r="I359" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10553,10 +10601,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="4" t="s">
+      <c r="J361" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10600,28 +10648,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="4">
+      <c r="A363" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="4">
+      <c r="C363" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10646,28 +10694,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="4">
+      <c r="C365" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="4">
+      <c r="D365" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="4">
+      <c r="I365" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10726,10 +10774,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="4" t="s">
+      <c r="J367" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10773,28 +10821,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="4">
+      <c r="A369" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="4">
+      <c r="B369" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="4">
+      <c r="C369" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="4">
+      <c r="E369" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="4">
+      <c r="F369" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="4">
+      <c r="G369" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="4">
+      <c r="H369" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10819,28 +10867,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="4">
+      <c r="C371" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="4">
+      <c r="D371" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="4">
+      <c r="I371" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10899,10 +10947,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="4" t="s">
+      <c r="J373" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10946,28 +10994,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="4">
+      <c r="A375" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="4">
+      <c r="B375" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="4">
+      <c r="C375" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="4">
+      <c r="E375" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="4">
+      <c r="F375" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="4">
+      <c r="G375" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="4">
+      <c r="H375" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10992,28 +11040,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="4">
+      <c r="C377" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="4">
+      <c r="D377" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="4">
+      <c r="I377" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11072,10 +11120,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="4" t="s">
+      <c r="J379" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11119,28 +11167,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="4">
+      <c r="A381" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="4">
+      <c r="B381" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="4">
+      <c r="C381" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="4">
+      <c r="E381" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="4">
+      <c r="F381" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="4">
+      <c r="G381" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="4">
+      <c r="H381" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11165,28 +11213,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="4">
+      <c r="C383" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="4">
+      <c r="D383" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="4">
+      <c r="I383" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11274,10 +11322,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="4" t="s">
+      <c r="J386" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11321,28 +11369,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="4">
+      <c r="A388" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="4">
+      <c r="B388" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="4">
+      <c r="C388" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="4">
+      <c r="E388" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="4">
+      <c r="F388" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="4">
+      <c r="G388" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="4">
+      <c r="H388" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11367,28 +11415,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="4">
+      <c r="C390" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="4">
+      <c r="D390" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="4">
+      <c r="I390" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11447,10 +11495,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="4" t="s">
+      <c r="J392" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11494,28 +11542,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="4">
+      <c r="A394" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="4">
+      <c r="B394" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="4">
+      <c r="C394" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="4">
+      <c r="E394" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="4">
+      <c r="F394" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="4">
+      <c r="G394" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="4">
+      <c r="H394" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11540,28 +11588,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="4">
+      <c r="C396" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="4">
+      <c r="D396" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="4">
+      <c r="I396" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11620,10 +11668,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="4" t="s">
+      <c r="J398" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11667,28 +11715,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="4">
+      <c r="A400" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="4">
+      <c r="B400" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="4">
+      <c r="C400" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="4">
+      <c r="E400" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="4">
+      <c r="F400" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="4">
+      <c r="G400" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="4">
+      <c r="H400" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11713,28 +11761,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="4">
+      <c r="C402" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="4">
+      <c r="D402" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="4">
+      <c r="I402" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11793,10 +11841,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="4" t="s">
+      <c r="J404" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11840,28 +11888,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="4">
+      <c r="A406" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="4">
+      <c r="B406" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="4">
+      <c r="C406" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="4">
+      <c r="E406" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="4">
+      <c r="F406" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="4">
+      <c r="G406" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="4">
+      <c r="H406" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11886,28 +11934,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="4">
+      <c r="C408" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="4">
+      <c r="D408" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="4">
+      <c r="I408" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11966,10 +12014,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="4" t="s">
+      <c r="J410" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12013,28 +12061,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="4">
+      <c r="A412" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="4">
+      <c r="B412" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="4">
+      <c r="C412" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="4">
+      <c r="E412" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="4">
+      <c r="F412" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="4">
+      <c r="G412" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="4">
+      <c r="H412" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12059,28 +12107,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="4">
+      <c r="C414" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="4">
+      <c r="D414" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="4">
+      <c r="I414" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12139,10 +12187,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="4" t="s">
+      <c r="J416" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12186,28 +12234,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="4">
+      <c r="A418" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="4">
+      <c r="B418" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="4">
+      <c r="C418" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="4">
+      <c r="E418" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="4">
+      <c r="F418" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="4">
+      <c r="G418" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="4">
+      <c r="H418" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12232,28 +12280,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="4">
+      <c r="B420" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="4">
+      <c r="C420" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="4">
+      <c r="D420" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="4">
+      <c r="E420" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="4">
+      <c r="F420" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="4">
+      <c r="G420" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="4">
+      <c r="H420" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="4">
+      <c r="I420" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12312,10 +12360,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="4" t="s">
+      <c r="J422" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12359,28 +12407,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="4">
+      <c r="A424" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="4">
+      <c r="B424" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="4">
+      <c r="C424" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="4">
+      <c r="E424" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="4">
+      <c r="F424" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="4">
+      <c r="G424" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="4">
+      <c r="H424" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12405,28 +12453,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="4">
+      <c r="B426" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="4">
+      <c r="C426" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="4">
+      <c r="D426" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="4">
+      <c r="E426" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="4">
+      <c r="F426" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="4">
+      <c r="G426" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="4">
+      <c r="H426" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="4">
+      <c r="I426" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12485,10 +12533,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="4" t="s">
+      <c r="J428" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12532,28 +12580,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="4">
+      <c r="A430" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="4">
+      <c r="B430" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="4">
+      <c r="C430" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="4">
+      <c r="E430" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="4">
+      <c r="F430" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="4">
+      <c r="G430" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="4">
+      <c r="H430" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12578,28 +12626,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="4">
+      <c r="B432" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="4">
+      <c r="C432" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="4">
+      <c r="D432" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="4">
+      <c r="E432" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="4">
+      <c r="F432" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="4">
+      <c r="G432" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="4">
+      <c r="H432" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="4">
+      <c r="I432" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12658,10 +12706,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="4" t="s">
+      <c r="J434" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12705,28 +12753,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="4">
+      <c r="A436" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="4">
+      <c r="B436" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="4">
+      <c r="C436" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="4">
+      <c r="E436" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="4">
+      <c r="F436" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="4">
+      <c r="G436" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="4">
+      <c r="H436" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12751,28 +12799,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="4">
+      <c r="B438" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="4">
+      <c r="C438" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="4">
+      <c r="D438" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="4">
+      <c r="E438" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="4">
+      <c r="F438" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="4">
+      <c r="G438" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="4">
+      <c r="H438" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="4">
+      <c r="I438" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12831,10 +12879,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="4" t="s">
+      <c r="J440" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12878,28 +12926,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="4">
+      <c r="A442" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="4">
+      <c r="B442" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="4">
+      <c r="C442" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="4">
+      <c r="E442" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="4">
+      <c r="F442" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="4">
+      <c r="G442" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="4">
+      <c r="H442" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12924,28 +12972,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="4">
+      <c r="B444" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="4">
+      <c r="C444" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="4">
+      <c r="D444" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="4">
+      <c r="E444" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="4">
+      <c r="F444" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="4">
+      <c r="G444" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="4">
+      <c r="H444" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="4">
+      <c r="I444" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13004,10 +13052,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="4" t="s">
+      <c r="J446" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
@@ -13051,28 +13099,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="s" s="4">
+      <c r="A448" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B448" t="s" s="4">
+      <c r="B448" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C448" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D448" t="s" s="4">
+      <c r="C448" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E448" t="s" s="4">
+      <c r="E448" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F448" t="s" s="4">
+      <c r="F448" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G448" t="s" s="4">
+      <c r="G448" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H448" t="s" s="4">
+      <c r="H448" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13097,28 +13145,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="B450" t="s" s="4">
+      <c r="B450" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C450" t="s" s="4">
+      <c r="C450" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D450" t="s" s="4">
+      <c r="D450" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E450" t="s" s="4">
+      <c r="E450" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F450" t="s" s="4">
+      <c r="F450" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G450" t="s" s="4">
+      <c r="G450" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H450" t="s" s="4">
+      <c r="H450" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I450" t="s" s="4">
+      <c r="I450" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13177,10 +13225,10 @@
       <c r="I452">
         <f>((C452-C451)^2+(D452- D451)^2)^.5</f>
       </c>
-      <c r="J452" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K452" s="4" t="s">
+      <c r="J452" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K452" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L452" t="n">
@@ -13224,28 +13272,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="s" s="4">
+      <c r="A454" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B454" t="s" s="4">
+      <c r="B454" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C454" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D454" t="s" s="4">
+      <c r="C454" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D454" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E454" t="s" s="4">
+      <c r="E454" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F454" t="s" s="4">
+      <c r="F454" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G454" t="s" s="4">
+      <c r="G454" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H454" t="s" s="4">
+      <c r="H454" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13270,28 +13318,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="B456" t="s" s="4">
+      <c r="B456" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C456" t="s" s="4">
+      <c r="C456" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D456" t="s" s="4">
+      <c r="D456" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E456" t="s" s="4">
+      <c r="E456" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F456" t="s" s="4">
+      <c r="F456" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G456" t="s" s="4">
+      <c r="G456" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H456" t="s" s="4">
+      <c r="H456" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I456" t="s" s="4">
+      <c r="I456" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13379,10 +13427,10 @@
       <c r="I459">
         <f>((C459-C458)^2+(D459- D458)^2)^.5</f>
       </c>
-      <c r="J459" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K459" s="4" t="s">
+      <c r="J459" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K459" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L459" t="n">
@@ -13426,28 +13474,28 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="s" s="4">
+      <c r="A461" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B461" t="s" s="4">
+      <c r="B461" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C461" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D461" t="s" s="4">
+      <c r="C461" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D461" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E461" t="s" s="4">
+      <c r="E461" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F461" t="s" s="4">
+      <c r="F461" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G461" t="s" s="4">
+      <c r="G461" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H461" t="s" s="4">
+      <c r="H461" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13472,28 +13520,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="B463" t="s" s="4">
+      <c r="B463" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C463" t="s" s="4">
+      <c r="C463" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D463" t="s" s="4">
+      <c r="D463" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E463" t="s" s="4">
+      <c r="E463" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F463" t="s" s="4">
+      <c r="F463" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G463" t="s" s="4">
+      <c r="G463" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H463" t="s" s="4">
+      <c r="H463" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I463" t="s" s="4">
+      <c r="I463" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13552,10 +13600,10 @@
       <c r="I465">
         <f>((C465-C464)^2+(D465- D464)^2)^.5</f>
       </c>
-      <c r="J465" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K465" s="4" t="s">
+      <c r="J465" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K465" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L465" t="n">
@@ -13599,28 +13647,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="s" s="4">
+      <c r="A467" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B467" t="s" s="4">
+      <c r="B467" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C467" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D467" t="s" s="4">
+      <c r="C467" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D467" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E467" t="s" s="4">
+      <c r="E467" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F467" t="s" s="4">
+      <c r="F467" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G467" t="s" s="4">
+      <c r="G467" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H467" t="s" s="4">
+      <c r="H467" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13645,28 +13693,28 @@
       </c>
     </row>
     <row r="469">
-      <c r="B469" t="s" s="4">
+      <c r="B469" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C469" t="s" s="4">
+      <c r="C469" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D469" t="s" s="4">
+      <c r="D469" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E469" t="s" s="4">
+      <c r="E469" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F469" t="s" s="4">
+      <c r="F469" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G469" t="s" s="4">
+      <c r="G469" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H469" t="s" s="4">
+      <c r="H469" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I469" t="s" s="4">
+      <c r="I469" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13725,10 +13773,10 @@
       <c r="I471">
         <f>((C471-C470)^2+(D471- D470)^2)^.5</f>
       </c>
-      <c r="J471" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K471" s="4" t="s">
+      <c r="J471" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K471" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L471" t="n">
@@ -13772,28 +13820,28 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="s" s="4">
+      <c r="A473" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B473" t="s" s="4">
+      <c r="B473" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C473" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D473" t="s" s="4">
+      <c r="C473" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D473" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E473" t="s" s="4">
+      <c r="E473" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F473" t="s" s="4">
+      <c r="F473" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G473" t="s" s="4">
+      <c r="G473" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H473" t="s" s="4">
+      <c r="H473" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13818,28 +13866,28 @@
       </c>
     </row>
     <row r="475">
-      <c r="B475" t="s" s="4">
+      <c r="B475" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C475" t="s" s="4">
+      <c r="C475" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D475" t="s" s="4">
+      <c r="D475" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E475" t="s" s="4">
+      <c r="E475" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F475" t="s" s="4">
+      <c r="F475" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G475" t="s" s="4">
+      <c r="G475" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H475" t="s" s="4">
+      <c r="H475" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I475" t="s" s="4">
+      <c r="I475" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13898,10 +13946,10 @@
       <c r="I477">
         <f>((C477-C476)^2+(D477- D476)^2)^.5</f>
       </c>
-      <c r="J477" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K477" s="4" t="s">
+      <c r="J477" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K477" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L477" t="n">
@@ -13945,28 +13993,28 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="s" s="4">
+      <c r="A479" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B479" t="s" s="4">
+      <c r="B479" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C479" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D479" t="s" s="4">
+      <c r="C479" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D479" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E479" t="s" s="4">
+      <c r="E479" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F479" t="s" s="4">
+      <c r="F479" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G479" t="s" s="4">
+      <c r="G479" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H479" t="s" s="4">
+      <c r="H479" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13991,28 +14039,28 @@
       </c>
     </row>
     <row r="481">
-      <c r="B481" t="s" s="4">
+      <c r="B481" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C481" t="s" s="4">
+      <c r="C481" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D481" t="s" s="4">
+      <c r="D481" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E481" t="s" s="4">
+      <c r="E481" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F481" t="s" s="4">
+      <c r="F481" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G481" t="s" s="4">
+      <c r="G481" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H481" t="s" s="4">
+      <c r="H481" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I481" t="s" s="4">
+      <c r="I481" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14129,10 +14177,10 @@
       <c r="I485">
         <f>((C485-C484)^2+(D485- D484)^2)^.5</f>
       </c>
-      <c r="J485" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K485" s="4" t="s">
+      <c r="J485" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K485" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L485" t="n">
@@ -14176,28 +14224,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="s" s="4">
+      <c r="A487" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B487" t="s" s="4">
+      <c r="B487" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C487" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D487" t="s" s="4">
+      <c r="C487" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D487" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E487" t="s" s="4">
+      <c r="E487" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F487" t="s" s="4">
+      <c r="F487" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G487" t="s" s="4">
+      <c r="G487" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H487" t="s" s="4">
+      <c r="H487" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14222,28 +14270,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="B489" t="s" s="4">
+      <c r="B489" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C489" t="s" s="4">
+      <c r="C489" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D489" t="s" s="4">
+      <c r="D489" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E489" t="s" s="4">
+      <c r="E489" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F489" t="s" s="4">
+      <c r="F489" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G489" t="s" s="4">
+      <c r="G489" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H489" t="s" s="4">
+      <c r="H489" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I489" t="s" s="4">
+      <c r="I489" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14302,10 +14350,10 @@
       <c r="I491">
         <f>((C491-C490)^2+(D491- D490)^2)^.5</f>
       </c>
-      <c r="J491" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K491" s="4" t="s">
+      <c r="J491" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K491" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L491" t="n">
@@ -14349,28 +14397,28 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="s" s="4">
+      <c r="A493" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B493" t="s" s="4">
+      <c r="B493" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C493" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D493" t="s" s="4">
+      <c r="C493" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D493" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E493" t="s" s="4">
+      <c r="E493" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F493" t="s" s="4">
+      <c r="F493" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G493" t="s" s="4">
+      <c r="G493" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H493" t="s" s="4">
+      <c r="H493" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14395,28 +14443,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="B495" t="s" s="4">
+      <c r="B495" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C495" t="s" s="4">
+      <c r="C495" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D495" t="s" s="4">
+      <c r="D495" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E495" t="s" s="4">
+      <c r="E495" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F495" t="s" s="4">
+      <c r="F495" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G495" t="s" s="4">
+      <c r="G495" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H495" t="s" s="4">
+      <c r="H495" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I495" t="s" s="4">
+      <c r="I495" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14504,10 +14552,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="4" t="s">
+      <c r="J498" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14551,28 +14599,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="4">
+      <c r="A500" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="4">
+      <c r="B500" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="4">
+      <c r="C500" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="4">
+      <c r="E500" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="4">
+      <c r="F500" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="4">
+      <c r="G500" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="4">
+      <c r="H500" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14597,28 +14645,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="4">
+      <c r="B502" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="4">
+      <c r="C502" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="4">
+      <c r="D502" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="4">
+      <c r="E502" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="4">
+      <c r="F502" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="4">
+      <c r="G502" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="4">
+      <c r="H502" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="4">
+      <c r="I502" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14677,10 +14725,10 @@
       <c r="I504">
         <f>((C504-C503)^2+(D504- D503)^2)^.5</f>
       </c>
-      <c r="J504" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K504" s="4" t="s">
+      <c r="J504" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K504" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L504" t="n">
@@ -14724,28 +14772,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="s" s="4">
+      <c r="A506" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B506" t="s" s="4">
+      <c r="B506" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C506" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D506" t="s" s="4">
+      <c r="C506" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D506" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E506" t="s" s="4">
+      <c r="E506" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F506" t="s" s="4">
+      <c r="F506" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G506" t="s" s="4">
+      <c r="G506" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H506" t="s" s="4">
+      <c r="H506" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14770,28 +14818,28 @@
       </c>
     </row>
     <row r="508">
-      <c r="B508" t="s" s="4">
+      <c r="B508" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C508" t="s" s="4">
+      <c r="C508" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D508" t="s" s="4">
+      <c r="D508" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E508" t="s" s="4">
+      <c r="E508" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F508" t="s" s="4">
+      <c r="F508" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G508" t="s" s="4">
+      <c r="G508" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H508" t="s" s="4">
+      <c r="H508" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I508" t="s" s="4">
+      <c r="I508" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14850,10 +14898,10 @@
       <c r="I510">
         <f>((C510-C509)^2+(D510- D509)^2)^.5</f>
       </c>
-      <c r="J510" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K510" s="4" t="s">
+      <c r="J510" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K510" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L510" t="n">
@@ -14897,28 +14945,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="s" s="4">
+      <c r="A512" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B512" t="s" s="4">
+      <c r="B512" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C512" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D512" t="s" s="4">
+      <c r="C512" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D512" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E512" t="s" s="4">
+      <c r="E512" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F512" t="s" s="4">
+      <c r="F512" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G512" t="s" s="4">
+      <c r="G512" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H512" t="s" s="4">
+      <c r="H512" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14943,28 +14991,28 @@
       </c>
     </row>
     <row r="514">
-      <c r="B514" t="s" s="4">
+      <c r="B514" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C514" t="s" s="4">
+      <c r="C514" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D514" t="s" s="4">
+      <c r="D514" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E514" t="s" s="4">
+      <c r="E514" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F514" t="s" s="4">
+      <c r="F514" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G514" t="s" s="4">
+      <c r="G514" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H514" t="s" s="4">
+      <c r="H514" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I514" t="s" s="4">
+      <c r="I514" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15023,10 +15071,10 @@
       <c r="I516">
         <f>((C516-C515)^2+(D516- D515)^2)^.5</f>
       </c>
-      <c r="J516" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K516" s="4" t="s">
+      <c r="J516" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K516" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L516" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18120" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22650" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -565,10 +583,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -612,28 +630,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="12">
+      <c r="A15" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="12">
+      <c r="C15" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -658,28 +676,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="12">
+      <c r="I17" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +756,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -785,28 +803,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -831,28 +849,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +987,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1016,28 +1034,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1080,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1160,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1189,28 +1207,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1253,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1333,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1362,28 +1380,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="12">
+      <c r="C41" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1426,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="12">
+      <c r="I43" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1506,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1535,28 +1553,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1599,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1708,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1737,28 +1755,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1801,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1881,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1910,28 +1928,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="12">
+      <c r="C60" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1974,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2054,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2083,28 +2101,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2147,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2227,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12" t="s">
+      <c r="J70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2256,28 +2274,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="12">
+      <c r="C72" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2320,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2400,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="12" t="s">
+      <c r="J76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2429,28 +2447,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="12">
+      <c r="A78" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="12">
+      <c r="C78" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2493,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="12">
+      <c r="C80" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="D80" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="12">
+      <c r="I80" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2573,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12" t="s">
+      <c r="J82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2602,28 +2620,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="12">
+      <c r="C84" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2666,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2728,10 +2746,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2775,28 +2793,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2821,28 +2839,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2919,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2948,28 +2966,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3012,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3074,10 +3092,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3121,28 +3139,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="12">
+      <c r="C102" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3167,28 +3185,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3247,10 +3265,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3294,28 +3312,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3340,28 +3358,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3420,10 +3438,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3467,28 +3485,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3513,28 +3531,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3593,10 +3611,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="12" t="s">
+      <c r="J118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3640,28 +3658,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="12">
+      <c r="A120" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="12">
+      <c r="C120" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3686,28 +3704,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="12">
+      <c r="I122" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3824,10 +3842,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="12" t="s">
+      <c r="J126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3871,28 +3889,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="12">
+      <c r="A128" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="12">
+      <c r="C128" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3917,28 +3935,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="12">
+      <c r="I130" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3997,10 +4015,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4044,28 +4062,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4090,28 +4108,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4170,10 +4188,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4217,28 +4235,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4263,28 +4281,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4343,10 +4361,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4390,28 +4408,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4436,28 +4454,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4516,10 +4534,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4563,28 +4581,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4609,28 +4627,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4689,10 +4707,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4736,28 +4754,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4782,28 +4800,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4862,10 +4880,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4909,28 +4927,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4955,28 +4973,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5093,10 +5111,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5140,28 +5158,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5186,28 +5204,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5266,10 +5284,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5313,28 +5331,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5359,28 +5377,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5497,10 +5515,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="12" t="s">
+      <c r="J184" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5544,28 +5562,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="12">
+      <c r="A186" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="12">
+      <c r="C186" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5590,28 +5608,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="12">
+      <c r="I188" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5670,10 +5688,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="12" t="s">
+      <c r="J190" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5717,28 +5735,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="12">
+      <c r="C192" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5763,28 +5781,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5843,10 +5861,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="12" t="s">
+      <c r="J196" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5890,28 +5908,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="12">
+      <c r="A198" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="12">
+      <c r="C198" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5936,28 +5954,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="12">
+      <c r="C200" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="12">
+      <c r="D200" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="12">
+      <c r="I200" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6016,10 +6034,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6063,28 +6081,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6109,28 +6127,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6189,10 +6207,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6236,28 +6254,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6282,28 +6300,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6391,10 +6409,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="12" t="s">
+      <c r="J215" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6438,28 +6456,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="12">
+      <c r="A217" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="12">
+      <c r="C217" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6484,28 +6502,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="12">
+      <c r="C219" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="12">
+      <c r="D219" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="12">
+      <c r="I219" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6564,10 +6582,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="12" t="s">
+      <c r="J221" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6611,28 +6629,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="12">
+      <c r="A223" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="12">
+      <c r="C223" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6657,28 +6675,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="12">
+      <c r="C225" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="12">
+      <c r="D225" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="12">
+      <c r="I225" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6737,10 +6755,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="12" t="s">
+      <c r="J227" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6784,28 +6802,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="12">
+      <c r="A229" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="12">
+      <c r="C229" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6830,28 +6848,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="12">
+      <c r="C231" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="12">
+      <c r="D231" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="12">
+      <c r="I231" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6910,10 +6928,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6957,28 +6975,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7003,28 +7021,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7112,10 +7130,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7159,28 +7177,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7205,28 +7223,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7285,10 +7303,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="12" t="s">
+      <c r="J246" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7332,28 +7350,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="12">
+      <c r="A248" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="12">
+      <c r="C248" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7378,28 +7396,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="12">
+      <c r="D250" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="12">
+      <c r="I250" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7458,10 +7476,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="12" t="s">
+      <c r="J252" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7505,28 +7523,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="12">
+      <c r="A254" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="12">
+      <c r="C254" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7551,28 +7569,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="12">
+      <c r="C256" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="12">
+      <c r="D256" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="12">
+      <c r="I256" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7660,10 +7678,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="12" t="s">
+      <c r="J259" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7707,28 +7725,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="12">
+      <c r="A261" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="12">
+      <c r="C261" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="12">
+      <c r="E261" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="12">
+      <c r="F261" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="12">
+      <c r="G261" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="12">
+      <c r="H261" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7753,28 +7771,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="12">
+      <c r="C263" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="12">
+      <c r="D263" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="12">
+      <c r="I263" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7833,10 +7851,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="12" t="s">
+      <c r="J265" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7880,28 +7898,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="12">
+      <c r="A267" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="12">
+      <c r="C267" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7926,28 +7944,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="12">
+      <c r="C269" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="12">
+      <c r="D269" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="12">
+      <c r="I269" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8006,10 +8024,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="12" t="s">
+      <c r="J271" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8053,28 +8071,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="12">
+      <c r="A273" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="12">
+      <c r="C273" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8099,28 +8117,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="12">
+      <c r="C275" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="12">
+      <c r="D275" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="12">
+      <c r="I275" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8179,10 +8197,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="12" t="s">
+      <c r="J277" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8226,28 +8244,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="12">
+      <c r="A279" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="12">
+      <c r="C279" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8272,28 +8290,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="12">
+      <c r="C281" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="12">
+      <c r="D281" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="12">
+      <c r="I281" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8352,10 +8370,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="12" t="s">
+      <c r="J283" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8399,28 +8417,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="12">
+      <c r="A285" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="12">
+      <c r="C285" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8445,28 +8463,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="12">
+      <c r="C287" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="12">
+      <c r="D287" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="12">
+      <c r="I287" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8525,10 +8543,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="12" t="s">
+      <c r="J289" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8572,28 +8590,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="12">
+      <c r="A291" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="12">
+      <c r="C291" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8618,28 +8636,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="12">
+      <c r="C293" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="12">
+      <c r="D293" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="12">
+      <c r="I293" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8698,10 +8716,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="12" t="s">
+      <c r="J295" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8745,28 +8763,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="12">
+      <c r="A297" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="12">
+      <c r="C297" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8791,28 +8809,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="12">
+      <c r="C299" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="12">
+      <c r="D299" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="12">
+      <c r="I299" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8871,10 +8889,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="12" t="s">
+      <c r="J301" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8918,28 +8936,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="12">
+      <c r="A303" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="12">
+      <c r="C303" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="12">
+      <c r="E303" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="12">
+      <c r="F303" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="12">
+      <c r="G303" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="12">
+      <c r="H303" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8964,28 +8982,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="12">
+      <c r="C305" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="12">
+      <c r="D305" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="12">
+      <c r="I305" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9044,10 +9062,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="12" t="s">
+      <c r="J307" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9091,28 +9109,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="12">
+      <c r="A309" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="12">
+      <c r="C309" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9137,28 +9155,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="12">
+      <c r="C311" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="12">
+      <c r="D311" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="12">
+      <c r="I311" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9217,10 +9235,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="12" t="s">
+      <c r="J313" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9264,28 +9282,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="12">
+      <c r="A315" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="12">
+      <c r="C315" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9310,28 +9328,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="12">
+      <c r="C317" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="12">
+      <c r="D317" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="12">
+      <c r="I317" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9390,10 +9408,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="12" t="s">
+      <c r="J319" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9437,28 +9455,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="12">
+      <c r="A321" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="12">
+      <c r="C321" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9483,28 +9501,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="12">
+      <c r="C323" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="12">
+      <c r="D323" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="12">
+      <c r="I323" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9563,10 +9581,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="12" t="s">
+      <c r="J325" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9610,28 +9628,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="12">
+      <c r="A327" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="12">
+      <c r="C327" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9656,28 +9674,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="12">
+      <c r="C329" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="12">
+      <c r="D329" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="12">
+      <c r="I329" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9736,10 +9754,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="12" t="s">
+      <c r="J331" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9783,28 +9801,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="12">
+      <c r="A333" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="12">
+      <c r="C333" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9829,28 +9847,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="12">
+      <c r="C335" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="12">
+      <c r="D335" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="12">
+      <c r="I335" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9909,10 +9927,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="12" t="s">
+      <c r="J337" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9956,28 +9974,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="12">
+      <c r="A339" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="12">
+      <c r="C339" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10002,28 +10020,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="12">
+      <c r="C341" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="12">
+      <c r="D341" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="12">
+      <c r="I341" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10082,10 +10100,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="12" t="s">
+      <c r="J343" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10129,28 +10147,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="12">
+      <c r="A345" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="12">
+      <c r="C345" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10175,28 +10193,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="12">
+      <c r="C347" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="12">
+      <c r="D347" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="12">
+      <c r="I347" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10255,10 +10273,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="12" t="s">
+      <c r="J349" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10302,28 +10320,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="12">
+      <c r="A351" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="12">
+      <c r="C351" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10348,28 +10366,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="12">
+      <c r="C353" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="12">
+      <c r="D353" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="12">
+      <c r="I353" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10428,10 +10446,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="12" t="s">
+      <c r="J355" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10475,28 +10493,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="12">
+      <c r="A357" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="12">
+      <c r="B357" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="12">
+      <c r="C357" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="12">
+      <c r="E357" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="12">
+      <c r="F357" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="12">
+      <c r="G357" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="12">
+      <c r="H357" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10521,28 +10539,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="12">
+      <c r="C359" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="12">
+      <c r="D359" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="12">
+      <c r="I359" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10601,10 +10619,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="12" t="s">
+      <c r="J361" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10648,28 +10666,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="12">
+      <c r="A363" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="12">
+      <c r="C363" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10694,28 +10712,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="12">
+      <c r="C365" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="12">
+      <c r="D365" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="12">
+      <c r="I365" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10774,10 +10792,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="12" t="s">
+      <c r="J367" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10821,28 +10839,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="12">
+      <c r="A369" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="12">
+      <c r="B369" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="12">
+      <c r="C369" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="12">
+      <c r="E369" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="12">
+      <c r="F369" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="12">
+      <c r="G369" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="12">
+      <c r="H369" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10867,28 +10885,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="12">
+      <c r="C371" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="12">
+      <c r="D371" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="12">
+      <c r="I371" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10947,10 +10965,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="12" t="s">
+      <c r="J373" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10994,28 +11012,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="12">
+      <c r="A375" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="12">
+      <c r="B375" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="12">
+      <c r="C375" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="12">
+      <c r="E375" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="12">
+      <c r="F375" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="12">
+      <c r="G375" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="12">
+      <c r="H375" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11040,28 +11058,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="12">
+      <c r="C377" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="12">
+      <c r="D377" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="12">
+      <c r="I377" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11120,10 +11138,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="12" t="s">
+      <c r="J379" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11167,28 +11185,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="12">
+      <c r="A381" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="12">
+      <c r="B381" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="12">
+      <c r="C381" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="12">
+      <c r="E381" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="12">
+      <c r="F381" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="12">
+      <c r="G381" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="12">
+      <c r="H381" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11213,28 +11231,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="12">
+      <c r="C383" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="12">
+      <c r="D383" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="12">
+      <c r="I383" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11322,10 +11340,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="12" t="s">
+      <c r="J386" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11369,28 +11387,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="12">
+      <c r="A388" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="12">
+      <c r="B388" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="12">
+      <c r="C388" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="12">
+      <c r="E388" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="12">
+      <c r="F388" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="12">
+      <c r="G388" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="12">
+      <c r="H388" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11415,28 +11433,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="12">
+      <c r="C390" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="12">
+      <c r="D390" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="12">
+      <c r="I390" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11495,10 +11513,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="12" t="s">
+      <c r="J392" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11542,28 +11560,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="12">
+      <c r="A394" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="12">
+      <c r="B394" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="12">
+      <c r="C394" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="12">
+      <c r="E394" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="12">
+      <c r="F394" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="12">
+      <c r="G394" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="12">
+      <c r="H394" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11588,28 +11606,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="12">
+      <c r="C396" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="12">
+      <c r="D396" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="12">
+      <c r="I396" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11668,10 +11686,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="12" t="s">
+      <c r="J398" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11715,28 +11733,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="12">
+      <c r="A400" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="12">
+      <c r="B400" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="12">
+      <c r="C400" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="12">
+      <c r="E400" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="12">
+      <c r="F400" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="12">
+      <c r="G400" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="12">
+      <c r="H400" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11761,28 +11779,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="12">
+      <c r="C402" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="12">
+      <c r="D402" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="12">
+      <c r="I402" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11841,10 +11859,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="12" t="s">
+      <c r="J404" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11888,28 +11906,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="12">
+      <c r="A406" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="12">
+      <c r="B406" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="12">
+      <c r="C406" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="12">
+      <c r="E406" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="12">
+      <c r="F406" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="12">
+      <c r="G406" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="12">
+      <c r="H406" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11934,28 +11952,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="12">
+      <c r="C408" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="12">
+      <c r="D408" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="12">
+      <c r="I408" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12014,10 +12032,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="12" t="s">
+      <c r="J410" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12061,28 +12079,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="12">
+      <c r="A412" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="12">
+      <c r="B412" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="12">
+      <c r="C412" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="12">
+      <c r="E412" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="12">
+      <c r="F412" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="12">
+      <c r="G412" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="12">
+      <c r="H412" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12107,28 +12125,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="12">
+      <c r="C414" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="12">
+      <c r="D414" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="12">
+      <c r="I414" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12187,10 +12205,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="12" t="s">
+      <c r="J416" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12234,28 +12252,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="12">
+      <c r="A418" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="12">
+      <c r="B418" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="12">
+      <c r="C418" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="12">
+      <c r="E418" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="12">
+      <c r="F418" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="12">
+      <c r="G418" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="12">
+      <c r="H418" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12280,28 +12298,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="12">
+      <c r="B420" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="12">
+      <c r="C420" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="12">
+      <c r="D420" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="12">
+      <c r="E420" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="12">
+      <c r="F420" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="12">
+      <c r="G420" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="12">
+      <c r="H420" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="12">
+      <c r="I420" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12360,10 +12378,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="12" t="s">
+      <c r="J422" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12407,28 +12425,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="12">
+      <c r="A424" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="12">
+      <c r="B424" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="12">
+      <c r="C424" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="12">
+      <c r="E424" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="12">
+      <c r="F424" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="12">
+      <c r="G424" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="12">
+      <c r="H424" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12453,28 +12471,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="12">
+      <c r="B426" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="12">
+      <c r="C426" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="12">
+      <c r="D426" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="12">
+      <c r="E426" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="12">
+      <c r="F426" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="12">
+      <c r="G426" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="12">
+      <c r="H426" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="12">
+      <c r="I426" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12533,10 +12551,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="12" t="s">
+      <c r="J428" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12580,28 +12598,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="12">
+      <c r="A430" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="12">
+      <c r="B430" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="12">
+      <c r="C430" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="12">
+      <c r="E430" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="12">
+      <c r="F430" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="12">
+      <c r="G430" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="12">
+      <c r="H430" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12626,28 +12644,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="12">
+      <c r="B432" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="12">
+      <c r="C432" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="12">
+      <c r="D432" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="12">
+      <c r="E432" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="12">
+      <c r="F432" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="12">
+      <c r="G432" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="12">
+      <c r="H432" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="12">
+      <c r="I432" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12706,10 +12724,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="12" t="s">
+      <c r="J434" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12753,28 +12771,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="12">
+      <c r="A436" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="12">
+      <c r="B436" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="12">
+      <c r="C436" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="12">
+      <c r="E436" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="12">
+      <c r="F436" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="12">
+      <c r="G436" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="12">
+      <c r="H436" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12799,28 +12817,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="12">
+      <c r="B438" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="12">
+      <c r="C438" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="12">
+      <c r="D438" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="12">
+      <c r="E438" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="12">
+      <c r="F438" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="12">
+      <c r="G438" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="12">
+      <c r="H438" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="12">
+      <c r="I438" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12879,10 +12897,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="12" t="s">
+      <c r="J440" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12926,28 +12944,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="12">
+      <c r="A442" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="12">
+      <c r="B442" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="12">
+      <c r="C442" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="12">
+      <c r="E442" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="12">
+      <c r="F442" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="12">
+      <c r="G442" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="12">
+      <c r="H442" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12972,28 +12990,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="12">
+      <c r="B444" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="12">
+      <c r="C444" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="12">
+      <c r="D444" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="12">
+      <c r="E444" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="12">
+      <c r="F444" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="12">
+      <c r="G444" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="12">
+      <c r="H444" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="12">
+      <c r="I444" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13052,10 +13070,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="12" t="s">
+      <c r="J446" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
@@ -13099,28 +13117,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="s" s="12">
+      <c r="A448" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B448" t="s" s="12">
+      <c r="B448" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C448" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D448" t="s" s="12">
+      <c r="C448" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E448" t="s" s="12">
+      <c r="E448" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F448" t="s" s="12">
+      <c r="F448" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G448" t="s" s="12">
+      <c r="G448" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H448" t="s" s="12">
+      <c r="H448" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13145,28 +13163,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="B450" t="s" s="12">
+      <c r="B450" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C450" t="s" s="12">
+      <c r="C450" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D450" t="s" s="12">
+      <c r="D450" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E450" t="s" s="12">
+      <c r="E450" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F450" t="s" s="12">
+      <c r="F450" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G450" t="s" s="12">
+      <c r="G450" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H450" t="s" s="12">
+      <c r="H450" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I450" t="s" s="12">
+      <c r="I450" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13225,10 +13243,10 @@
       <c r="I452">
         <f>((C452-C451)^2+(D452- D451)^2)^.5</f>
       </c>
-      <c r="J452" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K452" s="12" t="s">
+      <c r="J452" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K452" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L452" t="n">
@@ -13272,28 +13290,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="s" s="12">
+      <c r="A454" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B454" t="s" s="12">
+      <c r="B454" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C454" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D454" t="s" s="12">
+      <c r="C454" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D454" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E454" t="s" s="12">
+      <c r="E454" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F454" t="s" s="12">
+      <c r="F454" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G454" t="s" s="12">
+      <c r="G454" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H454" t="s" s="12">
+      <c r="H454" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13318,28 +13336,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="B456" t="s" s="12">
+      <c r="B456" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C456" t="s" s="12">
+      <c r="C456" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D456" t="s" s="12">
+      <c r="D456" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E456" t="s" s="12">
+      <c r="E456" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F456" t="s" s="12">
+      <c r="F456" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G456" t="s" s="12">
+      <c r="G456" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H456" t="s" s="12">
+      <c r="H456" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I456" t="s" s="12">
+      <c r="I456" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13427,10 +13445,10 @@
       <c r="I459">
         <f>((C459-C458)^2+(D459- D458)^2)^.5</f>
       </c>
-      <c r="J459" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K459" s="12" t="s">
+      <c r="J459" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K459" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L459" t="n">
@@ -13474,28 +13492,28 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="s" s="12">
+      <c r="A461" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B461" t="s" s="12">
+      <c r="B461" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C461" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D461" t="s" s="12">
+      <c r="C461" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D461" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E461" t="s" s="12">
+      <c r="E461" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F461" t="s" s="12">
+      <c r="F461" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G461" t="s" s="12">
+      <c r="G461" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H461" t="s" s="12">
+      <c r="H461" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13520,28 +13538,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="B463" t="s" s="12">
+      <c r="B463" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C463" t="s" s="12">
+      <c r="C463" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D463" t="s" s="12">
+      <c r="D463" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E463" t="s" s="12">
+      <c r="E463" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F463" t="s" s="12">
+      <c r="F463" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G463" t="s" s="12">
+      <c r="G463" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H463" t="s" s="12">
+      <c r="H463" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I463" t="s" s="12">
+      <c r="I463" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13600,10 +13618,10 @@
       <c r="I465">
         <f>((C465-C464)^2+(D465- D464)^2)^.5</f>
       </c>
-      <c r="J465" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K465" s="12" t="s">
+      <c r="J465" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K465" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L465" t="n">
@@ -13647,28 +13665,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="s" s="12">
+      <c r="A467" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B467" t="s" s="12">
+      <c r="B467" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C467" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D467" t="s" s="12">
+      <c r="C467" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D467" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E467" t="s" s="12">
+      <c r="E467" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F467" t="s" s="12">
+      <c r="F467" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G467" t="s" s="12">
+      <c r="G467" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H467" t="s" s="12">
+      <c r="H467" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13693,28 +13711,28 @@
       </c>
     </row>
     <row r="469">
-      <c r="B469" t="s" s="12">
+      <c r="B469" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C469" t="s" s="12">
+      <c r="C469" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D469" t="s" s="12">
+      <c r="D469" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E469" t="s" s="12">
+      <c r="E469" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F469" t="s" s="12">
+      <c r="F469" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G469" t="s" s="12">
+      <c r="G469" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H469" t="s" s="12">
+      <c r="H469" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I469" t="s" s="12">
+      <c r="I469" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13773,10 +13791,10 @@
       <c r="I471">
         <f>((C471-C470)^2+(D471- D470)^2)^.5</f>
       </c>
-      <c r="J471" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K471" s="12" t="s">
+      <c r="J471" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K471" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L471" t="n">
@@ -13820,28 +13838,28 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="s" s="12">
+      <c r="A473" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B473" t="s" s="12">
+      <c r="B473" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C473" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D473" t="s" s="12">
+      <c r="C473" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D473" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E473" t="s" s="12">
+      <c r="E473" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F473" t="s" s="12">
+      <c r="F473" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G473" t="s" s="12">
+      <c r="G473" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H473" t="s" s="12">
+      <c r="H473" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13866,28 +13884,28 @@
       </c>
     </row>
     <row r="475">
-      <c r="B475" t="s" s="12">
+      <c r="B475" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C475" t="s" s="12">
+      <c r="C475" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D475" t="s" s="12">
+      <c r="D475" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E475" t="s" s="12">
+      <c r="E475" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F475" t="s" s="12">
+      <c r="F475" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G475" t="s" s="12">
+      <c r="G475" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H475" t="s" s="12">
+      <c r="H475" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I475" t="s" s="12">
+      <c r="I475" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13946,10 +13964,10 @@
       <c r="I477">
         <f>((C477-C476)^2+(D477- D476)^2)^.5</f>
       </c>
-      <c r="J477" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K477" s="12" t="s">
+      <c r="J477" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K477" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L477" t="n">
@@ -13993,28 +14011,28 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="s" s="12">
+      <c r="A479" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B479" t="s" s="12">
+      <c r="B479" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C479" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D479" t="s" s="12">
+      <c r="C479" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D479" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E479" t="s" s="12">
+      <c r="E479" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F479" t="s" s="12">
+      <c r="F479" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G479" t="s" s="12">
+      <c r="G479" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H479" t="s" s="12">
+      <c r="H479" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14039,28 +14057,28 @@
       </c>
     </row>
     <row r="481">
-      <c r="B481" t="s" s="12">
+      <c r="B481" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C481" t="s" s="12">
+      <c r="C481" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D481" t="s" s="12">
+      <c r="D481" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E481" t="s" s="12">
+      <c r="E481" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F481" t="s" s="12">
+      <c r="F481" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G481" t="s" s="12">
+      <c r="G481" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H481" t="s" s="12">
+      <c r="H481" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I481" t="s" s="12">
+      <c r="I481" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14177,10 +14195,10 @@
       <c r="I485">
         <f>((C485-C484)^2+(D485- D484)^2)^.5</f>
       </c>
-      <c r="J485" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K485" s="12" t="s">
+      <c r="J485" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K485" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L485" t="n">
@@ -14224,28 +14242,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="s" s="12">
+      <c r="A487" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B487" t="s" s="12">
+      <c r="B487" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C487" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D487" t="s" s="12">
+      <c r="C487" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D487" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E487" t="s" s="12">
+      <c r="E487" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F487" t="s" s="12">
+      <c r="F487" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G487" t="s" s="12">
+      <c r="G487" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H487" t="s" s="12">
+      <c r="H487" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14270,28 +14288,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="B489" t="s" s="12">
+      <c r="B489" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C489" t="s" s="12">
+      <c r="C489" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D489" t="s" s="12">
+      <c r="D489" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E489" t="s" s="12">
+      <c r="E489" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F489" t="s" s="12">
+      <c r="F489" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G489" t="s" s="12">
+      <c r="G489" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H489" t="s" s="12">
+      <c r="H489" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I489" t="s" s="12">
+      <c r="I489" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14350,10 +14368,10 @@
       <c r="I491">
         <f>((C491-C490)^2+(D491- D490)^2)^.5</f>
       </c>
-      <c r="J491" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K491" s="12" t="s">
+      <c r="J491" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K491" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L491" t="n">
@@ -14397,28 +14415,28 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="s" s="12">
+      <c r="A493" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B493" t="s" s="12">
+      <c r="B493" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C493" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D493" t="s" s="12">
+      <c r="C493" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D493" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E493" t="s" s="12">
+      <c r="E493" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F493" t="s" s="12">
+      <c r="F493" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G493" t="s" s="12">
+      <c r="G493" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H493" t="s" s="12">
+      <c r="H493" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14443,28 +14461,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="B495" t="s" s="12">
+      <c r="B495" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C495" t="s" s="12">
+      <c r="C495" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D495" t="s" s="12">
+      <c r="D495" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E495" t="s" s="12">
+      <c r="E495" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F495" t="s" s="12">
+      <c r="F495" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G495" t="s" s="12">
+      <c r="G495" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H495" t="s" s="12">
+      <c r="H495" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I495" t="s" s="12">
+      <c r="I495" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14552,10 +14570,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="12" t="s">
+      <c r="J498" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14599,28 +14617,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="12">
+      <c r="A500" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="12">
+      <c r="B500" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="12">
+      <c r="C500" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="12">
+      <c r="E500" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="12">
+      <c r="F500" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="12">
+      <c r="G500" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="12">
+      <c r="H500" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14645,28 +14663,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="12">
+      <c r="B502" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="12">
+      <c r="C502" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="12">
+      <c r="D502" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="12">
+      <c r="E502" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="12">
+      <c r="F502" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="12">
+      <c r="G502" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="12">
+      <c r="H502" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="12">
+      <c r="I502" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14725,10 +14743,10 @@
       <c r="I504">
         <f>((C504-C503)^2+(D504- D503)^2)^.5</f>
       </c>
-      <c r="J504" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K504" s="12" t="s">
+      <c r="J504" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K504" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L504" t="n">
@@ -14772,28 +14790,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="s" s="12">
+      <c r="A506" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B506" t="s" s="12">
+      <c r="B506" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C506" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D506" t="s" s="12">
+      <c r="C506" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D506" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E506" t="s" s="12">
+      <c r="E506" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F506" t="s" s="12">
+      <c r="F506" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G506" t="s" s="12">
+      <c r="G506" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H506" t="s" s="12">
+      <c r="H506" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14818,28 +14836,28 @@
       </c>
     </row>
     <row r="508">
-      <c r="B508" t="s" s="12">
+      <c r="B508" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C508" t="s" s="12">
+      <c r="C508" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D508" t="s" s="12">
+      <c r="D508" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E508" t="s" s="12">
+      <c r="E508" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F508" t="s" s="12">
+      <c r="F508" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G508" t="s" s="12">
+      <c r="G508" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H508" t="s" s="12">
+      <c r="H508" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I508" t="s" s="12">
+      <c r="I508" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14898,10 +14916,10 @@
       <c r="I510">
         <f>((C510-C509)^2+(D510- D509)^2)^.5</f>
       </c>
-      <c r="J510" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K510" s="12" t="s">
+      <c r="J510" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K510" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L510" t="n">
@@ -14945,28 +14963,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="s" s="12">
+      <c r="A512" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B512" t="s" s="12">
+      <c r="B512" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C512" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D512" t="s" s="12">
+      <c r="C512" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D512" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E512" t="s" s="12">
+      <c r="E512" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F512" t="s" s="12">
+      <c r="F512" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G512" t="s" s="12">
+      <c r="G512" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H512" t="s" s="12">
+      <c r="H512" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14991,28 +15009,28 @@
       </c>
     </row>
     <row r="514">
-      <c r="B514" t="s" s="12">
+      <c r="B514" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C514" t="s" s="12">
+      <c r="C514" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D514" t="s" s="12">
+      <c r="D514" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E514" t="s" s="12">
+      <c r="E514" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F514" t="s" s="12">
+      <c r="F514" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G514" t="s" s="12">
+      <c r="G514" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H514" t="s" s="12">
+      <c r="H514" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I514" t="s" s="12">
+      <c r="I514" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15071,10 +15089,10 @@
       <c r="I516">
         <f>((C516-C515)^2+(D516- D515)^2)^.5</f>
       </c>
-      <c r="J516" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K516" s="12" t="s">
+      <c r="J516" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K516" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L516" t="n">
